--- a/Data/Fishers/FSP_Database_Fishers2223.xlsx
+++ b/Data/Fishers/FSP_Database_Fishers2223.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR13\Documents\LOCAL_NOT_ONEDRIVE\FSPsmallpelagics2022\Data\Fishers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E7A7A-8858-4507-93E2-337D3217D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D8FFC-215C-4AEF-BA1A-8E15418CEA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="21802" windowHeight="11756" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="21802" windowHeight="11756" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TL_SERENE_DAWN" sheetId="29" r:id="rId1"/>
-    <sheet name="LB_LYONESSE" sheetId="30" r:id="rId2"/>
-    <sheet name="TL_LYONESSE" sheetId="24" r:id="rId3"/>
+    <sheet name="TL_Vessel2" sheetId="29" r:id="rId1"/>
+    <sheet name="LB_Vessel1" sheetId="30" r:id="rId2"/>
+    <sheet name="TL_Vessel1" sheetId="24" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,9 +127,6 @@
     <t>dolphins_bycatch</t>
   </si>
   <si>
-    <t>Serene Dawn</t>
-  </si>
-  <si>
     <t>PW156</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Sardine</t>
   </si>
   <si>
-    <t>Lyonesse</t>
-  </si>
-  <si>
     <t>PZ81</t>
   </si>
   <si>
@@ -917,6 +911,12 @@
   </si>
   <si>
     <t>Date_original_gaps_not_inferred</t>
+  </si>
+  <si>
+    <t>Vessel1</t>
+  </si>
+  <si>
+    <t>Vessel2</t>
   </si>
 </sst>
 </file>
@@ -1333,9 +1333,9 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H27" sqref="H27"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A46:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="5">
         <v>44791</v>
@@ -1403,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>18.5</v>
@@ -1414,13 +1414,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="5">
         <v>44791</v>
@@ -1432,7 +1432,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="5">
         <v>44791</v>
@@ -1461,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>19.5</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="5">
         <v>44791</v>
@@ -1490,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="5">
         <v>44791</v>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>20.5</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="5">
         <v>44791</v>
@@ -1548,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>21</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="5">
         <v>44791</v>
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>21.5</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="5">
         <v>44791</v>
@@ -1606,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>22</v>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="5">
         <v>44791</v>
@@ -1635,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>22.5</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="5">
         <v>44791</v>
@@ -1664,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>23</v>
@@ -1674,14 +1674,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="7">
         <v>44791</v>
@@ -1693,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="6">
         <v>23.5</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="5">
         <v>44813</v>
@@ -1722,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>19</v>
@@ -1733,13 +1733,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="5">
         <v>44813</v>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>19.5</v>
@@ -1762,13 +1762,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="5">
         <v>44813</v>
@@ -1780,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>20</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="5">
         <v>44813</v>
@@ -1809,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>20.5</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="5">
         <v>44813</v>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>21</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
       </c>
       <c r="D18" s="5">
         <v>44813</v>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>21.5</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
       </c>
       <c r="D19" s="5">
         <v>44813</v>
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>22</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
       </c>
       <c r="D20" s="5">
         <v>44813</v>
@@ -1925,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>22.5</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
       </c>
       <c r="D21" s="5">
         <v>44813</v>
@@ -1954,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>23</v>
@@ -1965,13 +1965,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
       </c>
       <c r="D22" s="5">
         <v>44813</v>
@@ -1983,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>23.5</v>
@@ -1993,14 +1993,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D23" s="7">
         <v>44813</v>
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="6">
         <v>25</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
       </c>
       <c r="D24" s="5">
         <v>44839</v>
@@ -2041,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>17</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
       </c>
       <c r="D25" s="5">
         <v>44839</v>
@@ -2070,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>17.5</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
       </c>
       <c r="D26" s="5">
         <v>44839</v>
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>18</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
       </c>
       <c r="D27" s="5">
         <v>44839</v>
@@ -2128,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>18.5</v>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
       </c>
       <c r="D28" s="5">
         <v>44839</v>
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>19</v>
@@ -2168,13 +2168,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
       </c>
       <c r="D29" s="5">
         <v>44839</v>
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>19.5</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
       </c>
       <c r="D30" s="5">
         <v>44839</v>
@@ -2215,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>20</v>
@@ -2226,13 +2226,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
       </c>
       <c r="D31" s="5">
         <v>44839</v>
@@ -2244,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>20.5</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
       </c>
       <c r="D32" s="5">
         <v>44839</v>
@@ -2273,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>21</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
       </c>
       <c r="D33" s="5">
         <v>44839</v>
@@ -2302,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>21.5</v>
@@ -2313,13 +2313,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
       </c>
       <c r="D34" s="5">
         <v>44839</v>
@@ -2331,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>22</v>
@@ -2342,13 +2342,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
       </c>
       <c r="D35" s="5">
         <v>44839</v>
@@ -2360,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>22.5</v>
@@ -2371,13 +2371,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
       </c>
       <c r="D36" s="5">
         <v>44839</v>
@@ -2389,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>23</v>
@@ -2400,13 +2400,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
       </c>
       <c r="D37" s="5">
         <v>44839</v>
@@ -2418,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>23.5</v>
@@ -2428,14 +2428,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D38" s="7">
         <v>44839</v>
@@ -2447,7 +2447,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="6">
         <v>25</v>
@@ -2458,13 +2458,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
       </c>
       <c r="D39" s="5">
         <v>44885</v>
@@ -2476,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>16</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>31</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
       </c>
       <c r="D40" s="5">
         <v>44885</v>
@@ -2505,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>17.5</v>
@@ -2516,13 +2516,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>31</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
       </c>
       <c r="D41" s="5">
         <v>44885</v>
@@ -2534,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>18</v>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>31</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
       </c>
       <c r="D42" s="5">
         <v>44885</v>
@@ -2563,7 +2563,7 @@
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>18.5</v>
@@ -2574,13 +2574,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" t="s">
         <v>30</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>31</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
       </c>
       <c r="D43" s="5">
         <v>44885</v>
@@ -2592,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>19</v>
@@ -2603,13 +2603,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" t="s">
         <v>30</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>31</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
       </c>
       <c r="D44" s="5">
         <v>44885</v>
@@ -2621,7 +2621,7 @@
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>19.5</v>
@@ -2632,13 +2632,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>31</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
       </c>
       <c r="D45" s="5">
         <v>44885</v>
@@ -2650,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>20</v>
@@ -2661,13 +2661,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
       </c>
       <c r="D46" s="5">
         <v>44885</v>
@@ -2679,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>20.5</v>
@@ -2690,13 +2690,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" t="s">
         <v>30</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
       </c>
       <c r="D47" s="5">
         <v>44885</v>
@@ -2708,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>21</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" t="s">
         <v>30</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>31</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
       </c>
       <c r="D48" s="5">
         <v>44885</v>
@@ -2737,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>21.5</v>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49" t="s">
         <v>30</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
       </c>
       <c r="D49" s="5">
         <v>44885</v>
@@ -2766,7 +2766,7 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>22</v>
@@ -2777,13 +2777,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>293</v>
+      </c>
+      <c r="B50" t="s">
         <v>30</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>31</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
       </c>
       <c r="D50" s="5">
         <v>44885</v>
@@ -2795,7 +2795,7 @@
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>22.5</v>
@@ -2805,14 +2805,14 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D51" s="7">
         <v>44885</v>
@@ -2824,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51" s="6">
         <v>23</v>
@@ -2835,13 +2835,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" t="s">
         <v>30</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
       </c>
       <c r="D52" s="5">
         <v>44900</v>
@@ -2853,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>13.5</v>
@@ -2864,13 +2864,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" t="s">
         <v>30</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
       </c>
       <c r="D53" s="5">
         <v>44900</v>
@@ -2882,7 +2882,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>14</v>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>31</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
       </c>
       <c r="D54" s="5">
         <v>44900</v>
@@ -2911,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>15</v>
@@ -2922,13 +2922,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" t="s">
         <v>30</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>31</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
       </c>
       <c r="D55" s="5">
         <v>44900</v>
@@ -2940,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>16</v>
@@ -2951,13 +2951,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" t="s">
         <v>30</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>31</v>
-      </c>
-      <c r="C56" t="s">
-        <v>32</v>
       </c>
       <c r="D56" s="5">
         <v>44900</v>
@@ -2969,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>16.5</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>31</v>
-      </c>
-      <c r="C57" t="s">
-        <v>32</v>
       </c>
       <c r="D57" s="5">
         <v>44900</v>
@@ -2998,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>17</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" t="s">
         <v>30</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>31</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
       </c>
       <c r="D58" s="5">
         <v>44900</v>
@@ -3027,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>17.5</v>
@@ -3038,13 +3038,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" t="s">
         <v>30</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>31</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
       </c>
       <c r="D59" s="5">
         <v>44900</v>
@@ -3056,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>18</v>
@@ -3067,13 +3067,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" t="s">
         <v>30</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>31</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
       </c>
       <c r="D60" s="5">
         <v>44900</v>
@@ -3085,7 +3085,7 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>18.5</v>
@@ -3096,13 +3096,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" t="s">
         <v>30</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
       </c>
       <c r="D61" s="5">
         <v>44900</v>
@@ -3114,7 +3114,7 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>19</v>
@@ -3125,13 +3125,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" t="s">
         <v>30</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>31</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
       </c>
       <c r="D62" s="5">
         <v>44900</v>
@@ -3143,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>19.5</v>
@@ -3154,13 +3154,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B63" t="s">
         <v>30</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
       </c>
       <c r="D63" s="5">
         <v>44900</v>
@@ -3172,7 +3172,7 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>20</v>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" t="s">
         <v>30</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>31</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
       </c>
       <c r="D64" s="5">
         <v>44900</v>
@@ -3201,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>20.5</v>
@@ -3212,13 +3212,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>293</v>
+      </c>
+      <c r="B65" t="s">
         <v>30</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
       </c>
       <c r="D65" s="5">
         <v>44900</v>
@@ -3230,7 +3230,7 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>21</v>
@@ -3241,13 +3241,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" t="s">
         <v>30</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>31</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
       </c>
       <c r="D66" s="5">
         <v>44900</v>
@@ -3259,7 +3259,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>22</v>
@@ -3269,14 +3269,14 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D67" s="7">
         <v>44900</v>
@@ -3288,7 +3288,7 @@
         <v>8</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" s="6">
         <v>23.5</v>
@@ -3311,9 +3311,9 @@
   </sheetPr>
   <dimension ref="A1:Z152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B314" sqref="B314"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -3364,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -3421,7 +3421,7 @@
         <v>28</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -3429,22 +3429,22 @@
         <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="8">
         <v>44752</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -3465,22 +3465,22 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8">
         <v>44753</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -3498,22 +3498,22 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="8">
         <v>44753</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -3532,22 +3532,22 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8">
         <v>44754</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -3571,22 +3571,22 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="8">
         <v>44755</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -3604,22 +3604,22 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8">
         <v>44755</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -3638,22 +3638,22 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="8">
         <v>44756</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -3674,22 +3674,22 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="8">
         <v>44759</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>20</v>
@@ -3707,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="X9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="8">
@@ -3716,22 +3716,22 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8">
         <v>44761</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10">
         <v>20</v>
@@ -3752,22 +3752,22 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="8">
         <v>44762</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>32</v>
@@ -3791,22 +3791,22 @@
         <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8">
         <v>44763</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <v>32</v>
@@ -3827,22 +3827,22 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8">
         <v>44767</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -3863,22 +3863,22 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="8">
         <v>44768</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <v>29</v>
@@ -3899,22 +3899,22 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="8">
         <v>44768</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>28</v>
@@ -3936,22 +3936,22 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="8">
         <v>44770</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>26</v>
@@ -3969,22 +3969,22 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8">
         <v>44770</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17">
         <v>28</v>
@@ -4000,22 +4000,22 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8">
         <v>44770</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>25</v>
@@ -4034,22 +4034,22 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="8">
         <v>44772</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -4067,22 +4067,22 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="8">
         <v>44772</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -4104,22 +4104,22 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="8">
         <v>44774</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H21">
         <v>30</v>
@@ -4140,22 +4140,22 @@
         <v>228</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="8">
         <v>44774</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H22">
         <v>30</v>
@@ -4176,22 +4176,22 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="8">
         <v>44774</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="8">
         <v>44774</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24">
         <v>20</v>
@@ -4243,22 +4243,22 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="8">
         <v>44775</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H25">
         <v>20</v>
@@ -4282,22 +4282,22 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="8">
         <v>44776</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H26">
         <v>30</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="8">
         <v>44776</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27">
         <v>30</v>
@@ -4349,22 +4349,22 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="8">
         <v>44777</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H28">
         <v>28</v>
@@ -4382,22 +4382,22 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="8">
         <v>44777</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -4419,22 +4419,22 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30" s="8">
         <v>44780</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -4458,22 +4458,22 @@
         <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="8">
         <v>44780</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H31">
         <v>32</v>
@@ -4491,22 +4491,22 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="8">
         <v>44780</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H32">
         <v>28</v>
@@ -4524,29 +4524,29 @@
         <v>3</v>
       </c>
       <c r="X32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y32" s="10"/>
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E33" s="8">
         <v>44781</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -4564,22 +4564,22 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="8">
         <v>44781</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H34">
         <v>30</v>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="8">
         <v>44783</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H35">
         <v>25</v>
@@ -4634,22 +4634,22 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" s="8">
         <v>44783</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H36">
         <v>25</v>
@@ -4668,22 +4668,22 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="8">
         <v>44783</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H37">
         <v>20</v>
@@ -4701,22 +4701,22 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="8">
         <v>44783</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H38">
         <v>25</v>
@@ -4735,22 +4735,22 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E39" s="8">
         <v>44784</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H39">
         <v>25</v>
@@ -4768,22 +4768,22 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40" s="8">
         <v>44784</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H40">
         <v>25</v>
@@ -4805,22 +4805,22 @@
         <v>230</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E41" s="8">
         <v>44786</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H41">
         <v>28</v>
@@ -4838,22 +4838,22 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" s="8">
         <v>44787</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H42">
         <v>25</v>
@@ -4874,22 +4874,22 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E43" s="8">
         <v>44787</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H43">
         <v>28</v>
@@ -4914,22 +4914,22 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E44" s="8">
         <v>44787</v>
       </c>
       <c r="F44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H44">
         <v>26</v>
@@ -4947,22 +4947,22 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E45" s="8">
         <v>44787</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H45">
         <v>28</v>
@@ -4983,29 +4983,29 @@
         <v>3</v>
       </c>
       <c r="X45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E46" s="8">
         <v>44789</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H46">
         <v>25</v>
@@ -5023,22 +5023,22 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E47" s="8">
         <v>44789</v>
       </c>
       <c r="F47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H47">
         <v>25</v>
@@ -5063,22 +5063,22 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E48" s="8">
         <v>44789</v>
       </c>
       <c r="F48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H48">
         <v>25</v>
@@ -5096,22 +5096,22 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E49" s="8">
         <v>44789</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H49">
         <v>25</v>
@@ -5133,22 +5133,22 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E50" s="8">
         <v>44790</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H50">
         <v>24</v>
@@ -5172,22 +5172,22 @@
         <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E51" s="8">
         <v>44426</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H51">
         <v>25</v>
@@ -5205,22 +5205,22 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E52" s="8">
         <v>44426</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H52">
         <v>27</v>
@@ -5239,22 +5239,22 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E53" s="8">
         <v>44793</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H53">
         <v>26</v>
@@ -5272,22 +5272,22 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E54" s="8">
         <v>44793</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H54">
         <v>25</v>
@@ -5306,22 +5306,22 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E55" s="8">
         <v>44796</v>
       </c>
       <c r="F55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H55">
         <v>24</v>
@@ -5345,13 +5345,13 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E56" s="8">
         <v>44797</v>
@@ -5361,7 +5361,7 @@
         <v>3</v>
       </c>
       <c r="X56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y56" s="10"/>
       <c r="Z56" s="8">
@@ -5370,22 +5370,22 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E57" s="8">
         <v>44798</v>
       </c>
       <c r="F57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H57">
         <v>24</v>
@@ -5403,22 +5403,22 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E58" s="8">
         <v>44798</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H58">
         <v>24</v>
@@ -5440,22 +5440,22 @@
         <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E59" s="8">
         <v>44798</v>
       </c>
       <c r="F59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H59">
         <v>12</v>
@@ -5473,22 +5473,22 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E60" s="8">
         <v>44798</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H60">
         <v>14</v>
@@ -5504,22 +5504,22 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E61" s="8">
         <v>44798</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H61">
         <v>20</v>
@@ -5538,22 +5538,22 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E62" s="8">
         <v>44800</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H62">
         <v>15</v>
@@ -5562,7 +5562,7 @@
         <v>0.84375</v>
       </c>
       <c r="X62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y62" s="10"/>
       <c r="Z62" s="8">
@@ -5571,22 +5571,22 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E63" s="8">
         <v>44800</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H63">
         <v>12</v>
@@ -5605,22 +5605,22 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E64" s="8">
         <v>44801</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H64">
         <v>7</v>
@@ -5641,22 +5641,22 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E65" s="8">
         <v>44801</v>
       </c>
       <c r="F65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H65">
         <v>12</v>
@@ -5674,22 +5674,22 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E66" s="8">
         <v>44801</v>
       </c>
       <c r="F66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H66">
         <v>15</v>
@@ -5708,22 +5708,22 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E67" s="8">
         <v>44802</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H67">
         <v>20</v>
@@ -5741,22 +5741,22 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E68" s="8">
         <v>44803</v>
       </c>
       <c r="F68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H68">
         <v>29</v>
@@ -5774,7 +5774,7 @@
         <v>5</v>
       </c>
       <c r="X68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y68" s="10"/>
       <c r="Z68" s="8">
@@ -5786,22 +5786,22 @@
         <v>233</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E69" s="8">
         <v>44803</v>
       </c>
       <c r="F69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H69">
         <v>12</v>
@@ -5819,22 +5819,22 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E70" s="8">
         <v>44803</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H70">
         <v>20</v>
@@ -5852,29 +5852,29 @@
         <v>5</v>
       </c>
       <c r="X70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y70" s="10"/>
       <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E71" s="8">
         <v>44805</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H71">
         <v>10</v>
@@ -5892,22 +5892,22 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E72" s="8">
         <v>44805</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H72">
         <v>10</v>
@@ -5926,22 +5926,22 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E73" s="8">
         <v>44806</v>
       </c>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H73">
         <v>20</v>
@@ -5965,22 +5965,22 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E74" s="8">
         <v>44806</v>
       </c>
       <c r="F74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H74">
         <v>10</v>
@@ -5998,22 +5998,22 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E75" s="8">
         <v>44806</v>
       </c>
       <c r="F75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G75" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H75">
         <v>15</v>
@@ -6032,22 +6032,22 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E76" s="8">
         <v>44813</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H76">
         <v>15</v>
@@ -6065,22 +6065,22 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E77" s="8">
         <v>44813</v>
       </c>
       <c r="F77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H77">
         <v>25</v>
@@ -6102,22 +6102,22 @@
         <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E78" s="8">
         <v>44815</v>
       </c>
       <c r="F78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G78" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H78">
         <v>15</v>
@@ -6135,22 +6135,22 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E79" s="8">
         <v>44815</v>
       </c>
       <c r="F79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H79">
         <v>20</v>
@@ -6171,29 +6171,29 @@
         <v>3</v>
       </c>
       <c r="X79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y79" s="10"/>
       <c r="Z79" s="8"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E80" s="8">
         <v>44816</v>
       </c>
       <c r="F80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H80">
         <v>20</v>
@@ -6214,22 +6214,22 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E81" s="8">
         <v>44817</v>
       </c>
       <c r="F81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H81">
         <v>15</v>
@@ -6247,22 +6247,22 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E82" s="8">
         <v>44817</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H82">
         <v>20</v>
@@ -6278,22 +6278,22 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E83" s="8">
         <v>44817</v>
       </c>
       <c r="F83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H83">
         <v>22</v>
@@ -6314,29 +6314,29 @@
         <v>2</v>
       </c>
       <c r="X83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y83" s="10"/>
       <c r="Z83" s="8"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E84" s="8">
         <v>44818</v>
       </c>
       <c r="F84" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H84">
         <v>20</v>
@@ -6354,22 +6354,22 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E85" s="8">
         <v>44818</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H85">
         <v>20</v>
@@ -6391,13 +6391,13 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E86" s="8">
         <v>44819</v>
@@ -6407,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="X86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y86" s="10"/>
       <c r="Z86" s="8">
@@ -6419,22 +6419,22 @@
         <v>235</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E87" s="8">
         <v>44820</v>
       </c>
       <c r="F87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H87">
         <v>20</v>
@@ -6452,22 +6452,22 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E88" s="8">
         <v>44820</v>
       </c>
       <c r="F88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H88">
         <v>20</v>
@@ -6486,22 +6486,22 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E89" s="8">
         <v>44823</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G89" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H89">
         <v>10</v>
@@ -6519,22 +6519,22 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E90" s="8">
         <v>44823</v>
       </c>
       <c r="F90" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H90">
         <v>22</v>
@@ -6553,13 +6553,13 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E91" s="8">
         <v>44824</v>
@@ -6569,7 +6569,7 @@
         <v>5</v>
       </c>
       <c r="X91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y91" s="10"/>
       <c r="Z91" s="8">
@@ -6578,22 +6578,22 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E92" s="8">
         <v>44825</v>
       </c>
       <c r="F92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H92">
         <v>25</v>
@@ -6614,22 +6614,22 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E93" s="8">
         <v>44826</v>
       </c>
       <c r="F93" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H93">
         <v>20</v>
@@ -6650,22 +6650,22 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E94" s="8">
         <v>44827</v>
       </c>
       <c r="F94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H94">
         <v>15</v>
@@ -6683,22 +6683,22 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E95" s="8">
         <v>44827</v>
       </c>
       <c r="F95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G95" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H95">
         <v>20</v>
@@ -6720,22 +6720,22 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E96" s="8">
         <v>44829</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H96">
         <v>10</v>
@@ -6762,22 +6762,22 @@
         <v>236</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E97" s="8">
         <v>44830</v>
       </c>
       <c r="F97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H97">
         <v>18</v>
@@ -6801,20 +6801,20 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E98" s="8">
         <v>44831</v>
       </c>
       <c r="R98" s="3"/>
       <c r="X98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y98" s="10"/>
       <c r="Z98" s="8">
@@ -6823,22 +6823,22 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E99" s="8">
         <v>44832</v>
       </c>
       <c r="F99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H99">
         <v>20</v>
@@ -6862,22 +6862,22 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E100" s="8">
         <v>44833</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G100" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H100">
         <v>20</v>
@@ -6895,22 +6895,22 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E101" s="8">
         <v>44833</v>
       </c>
       <c r="F101" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H101">
         <v>21</v>
@@ -6932,22 +6932,22 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E102" s="8">
         <v>44836</v>
       </c>
       <c r="F102" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G102" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H102">
         <v>10</v>
@@ -6965,22 +6965,22 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E103" s="8">
         <v>44836</v>
       </c>
       <c r="F103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H103">
         <v>22</v>
@@ -6999,22 +6999,22 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E104" s="8">
         <v>44836</v>
       </c>
       <c r="F104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G104" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H104">
         <v>20</v>
@@ -7035,29 +7035,29 @@
         <v>2</v>
       </c>
       <c r="X104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y104" s="10"/>
       <c r="Z104" s="8"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E105" s="8">
         <v>44837</v>
       </c>
       <c r="F105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G105" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H105">
         <v>20</v>
@@ -7075,22 +7075,22 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E106" s="8">
         <v>44837</v>
       </c>
       <c r="F106" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H106">
         <v>20</v>
@@ -7112,22 +7112,22 @@
         <v>237</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E107" s="8">
         <v>44839</v>
       </c>
       <c r="F107" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G107" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H107">
         <v>8</v>
@@ -7148,22 +7148,22 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E108" s="8">
         <v>44839</v>
       </c>
       <c r="F108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G108" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H108">
         <v>14</v>
@@ -7182,22 +7182,22 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E109" s="8">
         <v>44840</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G109" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H109">
         <v>15</v>
@@ -7221,22 +7221,22 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E110" s="8">
         <v>44841</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H110">
         <v>20</v>
@@ -7257,22 +7257,22 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E111" s="8">
         <v>44841</v>
       </c>
       <c r="F111" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H111">
         <v>22</v>
@@ -7291,22 +7291,22 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E112" s="8">
         <v>44841</v>
       </c>
       <c r="F112" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H112">
         <v>20</v>
@@ -7328,22 +7328,22 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E113" s="8">
         <v>44843</v>
       </c>
       <c r="F113" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H113">
         <v>15</v>
@@ -7367,22 +7367,22 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E114" s="8">
         <v>44843</v>
       </c>
       <c r="F114" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G114" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H114">
         <v>20</v>
@@ -7404,22 +7404,22 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E115" s="8">
         <v>44843</v>
       </c>
       <c r="F115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G115" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H115">
         <v>15</v>
@@ -7435,22 +7435,22 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E116" s="8">
         <v>44843</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G116" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H116">
         <v>20</v>
@@ -7475,22 +7475,22 @@
         <v>238</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E117" s="8">
         <v>44846</v>
       </c>
       <c r="F117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H117">
         <v>10</v>
@@ -7508,22 +7508,22 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E118" s="8">
         <v>44846</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H118">
         <v>15</v>
@@ -7539,22 +7539,22 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E119" s="8">
         <v>44846</v>
       </c>
       <c r="F119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H119">
         <v>18</v>
@@ -7576,22 +7576,22 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E120" s="8">
         <v>44847</v>
       </c>
       <c r="F120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H120">
         <v>12</v>
@@ -7612,22 +7612,22 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E121" s="8">
         <v>44847</v>
       </c>
       <c r="F121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H121">
         <v>20</v>
@@ -7646,22 +7646,22 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E122" s="8">
         <v>44851</v>
       </c>
       <c r="F122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H122">
         <v>12</v>
@@ -7685,22 +7685,22 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E123" s="8">
         <v>44853</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H123">
         <v>20</v>
@@ -7724,22 +7724,22 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E124" s="8">
         <v>44869</v>
       </c>
       <c r="F124" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H124">
         <v>20</v>
@@ -7757,7 +7757,7 @@
         <v>3</v>
       </c>
       <c r="X124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y124" s="10"/>
       <c r="Z124" s="8">
@@ -7766,22 +7766,22 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E125" s="8">
         <v>44869</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H125">
         <v>15</v>
@@ -7808,22 +7808,22 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E126" s="8">
         <v>44874</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H126">
         <v>20</v>
@@ -7841,7 +7841,7 @@
         <v>4.5</v>
       </c>
       <c r="X126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="8">
@@ -7853,22 +7853,22 @@
         <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E127" s="8">
         <v>44876</v>
       </c>
       <c r="F127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H127">
         <v>6</v>
@@ -7889,22 +7889,22 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E128" s="8">
         <v>44879</v>
       </c>
       <c r="F128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H128">
         <v>8</v>
@@ -7928,22 +7928,22 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E129" s="8">
         <v>44880</v>
       </c>
       <c r="F129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H129">
         <v>6</v>
@@ -7964,22 +7964,22 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E130" s="8">
         <v>44880</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H130">
         <v>10</v>
@@ -7991,7 +7991,7 @@
         <v>150</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="R130" s="3">
         <v>0.33333333333333331</v>
@@ -8000,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="X130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="8">
@@ -8009,22 +8009,22 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E131" s="8">
         <v>44881</v>
       </c>
       <c r="F131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G131" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H131">
         <v>10</v>
@@ -8045,22 +8045,22 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E132" s="8">
         <v>44882</v>
       </c>
       <c r="F132" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H132">
         <v>12</v>
@@ -8072,7 +8072,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="X132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Y132" s="10"/>
       <c r="Z132" s="8">
@@ -8081,22 +8081,22 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E133" s="8">
         <v>44882</v>
       </c>
       <c r="F133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H133">
         <v>15</v>
@@ -8118,22 +8118,22 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E134" s="8">
         <v>44885</v>
       </c>
       <c r="F134" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H134">
         <v>10</v>
@@ -8160,19 +8160,19 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E135" s="8">
         <v>44886</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H135">
         <v>20</v>
@@ -8187,7 +8187,7 @@
         <v>4</v>
       </c>
       <c r="X135" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Y135" s="10"/>
       <c r="Z135" s="8">
@@ -8196,22 +8196,22 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E136" s="8">
         <v>44887</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H136">
         <v>15</v>
@@ -8235,13 +8235,13 @@
         <v>240</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E137" s="8">
         <v>44890</v>
@@ -8257,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="X137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Y137" s="10"/>
       <c r="Z137" s="8">
@@ -8266,22 +8266,22 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E138" s="8">
         <v>44892</v>
       </c>
       <c r="F138" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H138">
         <v>10</v>
@@ -8305,22 +8305,22 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E139" s="8">
         <v>44893</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H139">
         <v>8</v>
@@ -8341,22 +8341,22 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E140" s="8">
         <v>44894</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H140">
         <v>10</v>
@@ -8374,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="X140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Y140" s="10"/>
       <c r="Z140" s="8">
@@ -8383,22 +8383,22 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E141" s="8">
         <v>44895</v>
       </c>
       <c r="F141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G141" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H141">
         <v>12</v>
@@ -8425,22 +8425,22 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E142" s="8">
         <v>44896</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H142">
         <v>15</v>
@@ -8464,13 +8464,13 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E143" s="8">
         <v>44898</v>
@@ -8483,7 +8483,7 @@
         <v>3</v>
       </c>
       <c r="X143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Y143" s="10"/>
       <c r="Z143" s="8">
@@ -8492,20 +8492,20 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E144" s="8">
         <v>44899</v>
       </c>
       <c r="R144" s="3"/>
       <c r="X144" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y144" s="10"/>
       <c r="Z144" s="8">
@@ -8514,20 +8514,20 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E145" s="8">
         <v>44900</v>
       </c>
       <c r="R145" s="3"/>
       <c r="X145" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y145" s="10"/>
       <c r="Z145" s="8">
@@ -8536,20 +8536,20 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E146" s="8">
         <v>44901</v>
       </c>
       <c r="R146" s="3"/>
       <c r="X146" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y146" s="10"/>
       <c r="Z146" s="8">
@@ -8561,22 +8561,22 @@
         <v>241</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E147" s="8">
         <v>44902</v>
       </c>
       <c r="F147" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H147">
         <v>12</v>
@@ -8603,28 +8603,28 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E148" s="8">
         <v>44903</v>
       </c>
       <c r="F148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H148">
         <v>12</v>
       </c>
       <c r="P148" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R148" s="3">
         <v>0.75</v>
@@ -8639,22 +8639,22 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E149" s="8">
         <v>44906</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H149">
         <v>12</v>
@@ -8663,7 +8663,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="X149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y149" s="10"/>
       <c r="Z149" s="8">
@@ -8672,22 +8672,22 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D150" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E150" s="8">
         <v>44906</v>
       </c>
       <c r="F150" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H150">
         <v>12</v>
@@ -8712,22 +8712,22 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E151" s="8">
         <v>44907</v>
       </c>
       <c r="F151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G151" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H151">
         <v>14</v>
@@ -8748,22 +8748,22 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D152" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E152" s="8">
         <v>44908</v>
       </c>
       <c r="F152" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H152">
         <v>7</v>
@@ -8799,9 +8799,9 @@
   </sheetPr>
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -8852,13 +8852,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D2" s="5">
         <v>44755</v>
@@ -8870,7 +8870,7 @@
         <v>3.5</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="11">
         <v>17.5</v>
@@ -8881,13 +8881,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D3" s="5">
         <v>44755</v>
@@ -8899,7 +8899,7 @@
         <v>3.5</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="11">
         <v>18</v>
@@ -8910,13 +8910,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D4" s="5">
         <v>44755</v>
@@ -8928,7 +8928,7 @@
         <v>3.5</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="11">
         <v>18.5</v>
@@ -8939,13 +8939,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D5" s="5">
         <v>44755</v>
@@ -8957,7 +8957,7 @@
         <v>3.5</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="11">
         <v>19</v>
@@ -8968,13 +8968,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D6" s="5">
         <v>44755</v>
@@ -8986,7 +8986,7 @@
         <v>3.5</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="11">
         <v>19.5</v>
@@ -8997,13 +8997,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D7" s="5">
         <v>44755</v>
@@ -9015,7 +9015,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="11">
         <v>20</v>
@@ -9026,13 +9026,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" s="5">
         <v>44755</v>
@@ -9044,7 +9044,7 @@
         <v>3.5</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="11">
         <v>20.5</v>
@@ -9055,13 +9055,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D9" s="5">
         <v>44755</v>
@@ -9073,7 +9073,7 @@
         <v>3.5</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="11">
         <v>21</v>
@@ -9084,13 +9084,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D10" s="5">
         <v>44755</v>
@@ -9102,7 +9102,7 @@
         <v>3.5</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11">
         <v>21.5</v>
@@ -9112,14 +9112,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
+      <c r="A11" t="s">
+        <v>292</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D11" s="7">
         <v>44755</v>
@@ -9131,7 +9131,7 @@
         <v>3.5</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="13">
         <v>22</v>
@@ -9143,13 +9143,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" s="5">
         <v>44759</v>
@@ -9161,7 +9161,7 @@
         <v>8.5</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="11">
         <v>16</v>
@@ -9172,13 +9172,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" s="5">
         <v>44759</v>
@@ -9190,7 +9190,7 @@
         <v>8.5</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="11">
         <v>16.5</v>
@@ -9201,13 +9201,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D14" s="5">
         <v>44759</v>
@@ -9219,7 +9219,7 @@
         <v>8.5</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="11">
         <v>17</v>
@@ -9230,13 +9230,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" s="5">
         <v>44759</v>
@@ -9248,7 +9248,7 @@
         <v>8.5</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="11">
         <v>17.5</v>
@@ -9259,13 +9259,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D16" s="5">
         <v>44759</v>
@@ -9277,7 +9277,7 @@
         <v>8.5</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="11">
         <v>18</v>
@@ -9288,13 +9288,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" s="5">
         <v>44759</v>
@@ -9306,7 +9306,7 @@
         <v>8.5</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="11">
         <v>18.5</v>
@@ -9317,13 +9317,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D18" s="5">
         <v>44759</v>
@@ -9335,7 +9335,7 @@
         <v>8.5</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="11">
         <v>19</v>
@@ -9346,13 +9346,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D19" s="5">
         <v>44759</v>
@@ -9364,7 +9364,7 @@
         <v>8.5</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="11">
         <v>19.5</v>
@@ -9375,13 +9375,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D20" s="5">
         <v>44759</v>
@@ -9393,7 +9393,7 @@
         <v>8.5</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="11">
         <v>20</v>
@@ -9404,13 +9404,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D21" s="5">
         <v>44759</v>
@@ -9422,7 +9422,7 @@
         <v>8.5</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="11">
         <v>20.5</v>
@@ -9433,13 +9433,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D22" s="5">
         <v>44759</v>
@@ -9451,7 +9451,7 @@
         <v>8.5</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="11">
         <v>21</v>
@@ -9462,13 +9462,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D23" s="5">
         <v>44759</v>
@@ -9480,7 +9480,7 @@
         <v>8.5</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="11">
         <v>21.5</v>
@@ -9491,13 +9491,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D24" s="5">
         <v>44759</v>
@@ -9509,7 +9509,7 @@
         <v>8.5</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="11">
         <v>22</v>
@@ -9519,14 +9519,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
+      <c r="A25" t="s">
+        <v>292</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D25" s="7">
         <v>44759</v>
@@ -9538,7 +9538,7 @@
         <v>8.5</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="13">
         <v>22.5</v>
@@ -9550,13 +9550,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D26" s="5">
         <v>44767</v>
@@ -9568,7 +9568,7 @@
         <v>12.3</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="11">
         <v>17.5</v>
@@ -9579,13 +9579,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D27" s="5">
         <v>44767</v>
@@ -9597,7 +9597,7 @@
         <v>12.3</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="11">
         <v>18.5</v>
@@ -9608,13 +9608,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D28" s="5">
         <v>44767</v>
@@ -9626,7 +9626,7 @@
         <v>12.3</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="11">
         <v>19</v>
@@ -9637,13 +9637,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D29" s="5">
         <v>44767</v>
@@ -9655,7 +9655,7 @@
         <v>12.3</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="11">
         <v>19.5</v>
@@ -9666,13 +9666,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D30" s="5">
         <v>44767</v>
@@ -9684,7 +9684,7 @@
         <v>12.3</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="11">
         <v>20</v>
@@ -9695,13 +9695,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D31" s="5">
         <v>44767</v>
@@ -9713,7 +9713,7 @@
         <v>12.3</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="11">
         <v>20.5</v>
@@ -9724,13 +9724,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D32" s="5">
         <v>44767</v>
@@ -9742,7 +9742,7 @@
         <v>12.3</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="11">
         <v>21</v>
@@ -9753,13 +9753,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D33" s="5">
         <v>44767</v>
@@ -9771,7 +9771,7 @@
         <v>12.3</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="11">
         <v>21.5</v>
@@ -9782,13 +9782,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D34" s="5">
         <v>44767</v>
@@ -9800,7 +9800,7 @@
         <v>12.3</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="11">
         <v>22</v>
@@ -9811,13 +9811,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D35" s="5">
         <v>44767</v>
@@ -9829,7 +9829,7 @@
         <v>12.3</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="11">
         <v>22.5</v>
@@ -9839,14 +9839,14 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>34</v>
+      <c r="A36" t="s">
+        <v>292</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D36" s="7">
         <v>44767</v>
@@ -9858,7 +9858,7 @@
         <v>12.3</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="13">
         <v>23.5</v>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D37" s="5">
         <v>44773</v>
@@ -9888,7 +9888,7 @@
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="11">
         <v>18</v>
@@ -9899,13 +9899,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D38" s="5">
         <v>44773</v>
@@ -9917,7 +9917,7 @@
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="11">
         <v>18.5</v>
@@ -9928,13 +9928,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D39" s="5">
         <v>44773</v>
@@ -9946,7 +9946,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="11">
         <v>19</v>
@@ -9957,13 +9957,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D40" s="5">
         <v>44773</v>
@@ -9975,7 +9975,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40" s="11">
         <v>19.5</v>
@@ -9986,13 +9986,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D41" s="5">
         <v>44773</v>
@@ -10004,7 +10004,7 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="11">
         <v>20</v>
@@ -10015,13 +10015,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D42" s="5">
         <v>44773</v>
@@ -10033,7 +10033,7 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" s="11">
         <v>20.5</v>
@@ -10044,13 +10044,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D43" s="5">
         <v>44773</v>
@@ -10062,7 +10062,7 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43" s="11">
         <v>21</v>
@@ -10073,13 +10073,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D44" s="5">
         <v>44773</v>
@@ -10091,7 +10091,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" s="11">
         <v>21.5</v>
@@ -10102,13 +10102,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D45" s="5">
         <v>44773</v>
@@ -10120,7 +10120,7 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" s="11">
         <v>22</v>
@@ -10131,13 +10131,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D46" s="5">
         <v>44773</v>
@@ -10149,7 +10149,7 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="11">
         <v>23</v>
@@ -10159,14 +10159,14 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>34</v>
+      <c r="A47" t="s">
+        <v>292</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D47" s="7">
         <v>44773</v>
@@ -10178,7 +10178,7 @@
         <v>6</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" s="13">
         <v>23.5</v>
@@ -10190,13 +10190,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D48" s="5">
         <v>44782</v>
@@ -10208,7 +10208,7 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" s="11">
         <v>17</v>
@@ -10219,13 +10219,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D49" s="5">
         <v>44782</v>
@@ -10237,7 +10237,7 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="11">
         <v>17.5</v>
@@ -10248,13 +10248,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D50" s="5">
         <v>44782</v>
@@ -10266,7 +10266,7 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" s="11">
         <v>18</v>
@@ -10277,13 +10277,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D51" s="5">
         <v>44782</v>
@@ -10295,7 +10295,7 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51" s="11">
         <v>18.5</v>
@@ -10306,13 +10306,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D52" s="5">
         <v>44782</v>
@@ -10324,7 +10324,7 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52" s="11">
         <v>19</v>
@@ -10335,13 +10335,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D53" s="5">
         <v>44782</v>
@@ -10353,7 +10353,7 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53" s="11">
         <v>19.5</v>
@@ -10364,13 +10364,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D54" s="5">
         <v>44782</v>
@@ -10382,7 +10382,7 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="11">
         <v>20</v>
@@ -10393,13 +10393,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D55" s="5">
         <v>44782</v>
@@ -10411,7 +10411,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" s="11">
         <v>20.5</v>
@@ -10422,13 +10422,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D56" s="5">
         <v>44782</v>
@@ -10440,7 +10440,7 @@
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="11">
         <v>21</v>
@@ -10451,13 +10451,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D57" s="5">
         <v>44782</v>
@@ -10469,7 +10469,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="11">
         <v>21.5</v>
@@ -10480,13 +10480,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D58" s="5">
         <v>44782</v>
@@ -10498,7 +10498,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58" s="11">
         <v>22</v>
@@ -10508,14 +10508,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>34</v>
+      <c r="A59" t="s">
+        <v>292</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D59" s="7">
         <v>44782</v>
@@ -10527,7 +10527,7 @@
         <v>6</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59" s="13">
         <v>22.5</v>
@@ -10539,13 +10539,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D60" s="5">
         <v>44799</v>
@@ -10557,7 +10557,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60" s="11">
         <v>19</v>
@@ -10568,13 +10568,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D61" s="5">
         <v>44799</v>
@@ -10586,7 +10586,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61" s="11">
         <v>19.5</v>
@@ -10597,13 +10597,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D62" s="5">
         <v>44799</v>
@@ -10615,7 +10615,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" s="11">
         <v>20</v>
@@ -10626,13 +10626,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D63" s="5">
         <v>44799</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="11">
         <v>20.5</v>
@@ -10655,13 +10655,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D64" s="5">
         <v>44799</v>
@@ -10673,7 +10673,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64" s="11">
         <v>21</v>
@@ -10684,13 +10684,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D65" s="5">
         <v>44799</v>
@@ -10702,7 +10702,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65" s="11">
         <v>21.5</v>
@@ -10713,13 +10713,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D66" s="5">
         <v>44799</v>
@@ -10731,7 +10731,7 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" s="11">
         <v>22</v>
@@ -10741,14 +10741,14 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>34</v>
+      <c r="A67" t="s">
+        <v>292</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D67" s="7">
         <v>44799</v>
@@ -10760,7 +10760,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" s="13">
         <v>22.5</v>
@@ -10772,13 +10772,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D68" s="5">
         <v>44817</v>
@@ -10790,7 +10790,7 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68" s="11">
         <v>17.5</v>
@@ -10801,13 +10801,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D69" s="5">
         <v>44817</v>
@@ -10819,7 +10819,7 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69" s="11">
         <v>18</v>
@@ -10830,13 +10830,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D70" s="5">
         <v>44817</v>
@@ -10848,7 +10848,7 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70" s="11">
         <v>18.5</v>
@@ -10859,13 +10859,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D71" s="5">
         <v>44817</v>
@@ -10877,7 +10877,7 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71" s="11">
         <v>19</v>
@@ -10888,13 +10888,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D72" s="5">
         <v>44817</v>
@@ -10906,7 +10906,7 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" s="11">
         <v>19.5</v>
@@ -10917,13 +10917,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D73" s="5">
         <v>44817</v>
@@ -10935,7 +10935,7 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" s="11">
         <v>20</v>
@@ -10946,13 +10946,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D74" s="5">
         <v>44817</v>
@@ -10964,7 +10964,7 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="11">
         <v>20.5</v>
@@ -10975,13 +10975,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D75" s="5">
         <v>44817</v>
@@ -10993,7 +10993,7 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" s="11">
         <v>21</v>
@@ -11004,13 +11004,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D76" s="5">
         <v>44817</v>
@@ -11022,7 +11022,7 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76" s="11">
         <v>21.5</v>
@@ -11033,13 +11033,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D77" s="5">
         <v>44817</v>
@@ -11051,7 +11051,7 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" s="11">
         <v>22</v>
@@ -11062,13 +11062,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D78" s="5">
         <v>44817</v>
@@ -11080,7 +11080,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" s="11">
         <v>22.5</v>
@@ -11090,14 +11090,14 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>34</v>
+      <c r="A79" t="s">
+        <v>292</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D79" s="7">
         <v>44817</v>
@@ -11109,7 +11109,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79" s="13">
         <v>23</v>
@@ -11121,13 +11121,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D80" s="5">
         <v>44830</v>
@@ -11139,7 +11139,7 @@
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" s="11">
         <v>18.5</v>
@@ -11150,13 +11150,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D81" s="5">
         <v>44830</v>
@@ -11168,7 +11168,7 @@
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81" s="11">
         <v>19</v>
@@ -11179,13 +11179,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D82" s="5">
         <v>44830</v>
@@ -11197,7 +11197,7 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82" s="11">
         <v>19.5</v>
@@ -11208,13 +11208,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D83" s="5">
         <v>44830</v>
@@ -11226,7 +11226,7 @@
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83" s="11">
         <v>20</v>
@@ -11237,13 +11237,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D84" s="5">
         <v>44830</v>
@@ -11255,7 +11255,7 @@
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" s="11">
         <v>20.5</v>
@@ -11266,13 +11266,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D85" s="5">
         <v>44830</v>
@@ -11284,7 +11284,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85" s="11">
         <v>21</v>
@@ -11295,13 +11295,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D86" s="5">
         <v>44830</v>
@@ -11313,7 +11313,7 @@
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86" s="11">
         <v>21.5</v>
@@ -11324,13 +11324,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D87" s="5">
         <v>44830</v>
@@ -11342,7 +11342,7 @@
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87" s="11">
         <v>22</v>
@@ -11353,13 +11353,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D88" s="5">
         <v>44830</v>
@@ -11371,7 +11371,7 @@
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88" s="11">
         <v>22.5</v>
@@ -11381,14 +11381,14 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>34</v>
+      <c r="A89" t="s">
+        <v>292</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D89" s="7">
         <v>44830</v>
@@ -11400,7 +11400,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89" s="13">
         <v>23</v>
@@ -11412,13 +11412,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D90" s="5">
         <v>44840</v>
@@ -11430,7 +11430,7 @@
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90" s="11">
         <v>17.5</v>
@@ -11441,13 +11441,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D91" s="5">
         <v>44840</v>
@@ -11459,7 +11459,7 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H91" s="11">
         <v>18.5</v>
@@ -11470,13 +11470,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D92" s="5">
         <v>44840</v>
@@ -11488,7 +11488,7 @@
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92" s="11">
         <v>19</v>
@@ -11499,13 +11499,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D93" s="5">
         <v>44840</v>
@@ -11517,7 +11517,7 @@
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93" s="11">
         <v>19.5</v>
@@ -11528,13 +11528,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D94" s="5">
         <v>44840</v>
@@ -11546,7 +11546,7 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H94" s="11">
         <v>20</v>
@@ -11557,13 +11557,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D95" s="5">
         <v>44840</v>
@@ -11575,7 +11575,7 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95" s="11">
         <v>20.5</v>
@@ -11586,13 +11586,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D96" s="5">
         <v>44840</v>
@@ -11604,7 +11604,7 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96" s="11">
         <v>21</v>
@@ -11615,13 +11615,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D97" s="5">
         <v>44840</v>
@@ -11633,7 +11633,7 @@
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H97" s="11">
         <v>21.5</v>
@@ -11644,13 +11644,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D98" s="5">
         <v>44840</v>
@@ -11662,7 +11662,7 @@
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H98" s="11">
         <v>22</v>
@@ -11673,13 +11673,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D99" s="5">
         <v>44840</v>
@@ -11691,7 +11691,7 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H99" s="11">
         <v>22.5</v>
@@ -11701,14 +11701,14 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>34</v>
+      <c r="A100" t="s">
+        <v>292</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D100" s="7">
         <v>44840</v>
@@ -11720,7 +11720,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H100" s="13">
         <v>23</v>
@@ -11732,13 +11732,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D101" s="5">
         <v>44885</v>
@@ -11750,7 +11750,7 @@
         <v>15.5</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H101" s="11">
         <v>16</v>
@@ -11761,13 +11761,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="5">
         <v>44885</v>
@@ -11779,7 +11779,7 @@
         <v>15.5</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H102" s="11">
         <v>16.5</v>
@@ -11790,13 +11790,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D103" s="5">
         <v>44885</v>
@@ -11808,7 +11808,7 @@
         <v>15.5</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103" s="11">
         <v>17.5</v>
@@ -11819,13 +11819,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="5">
         <v>44885</v>
@@ -11837,7 +11837,7 @@
         <v>15.5</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104" s="11">
         <v>18</v>
@@ -11848,13 +11848,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="5">
         <v>44885</v>
@@ -11866,7 +11866,7 @@
         <v>15.5</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H105" s="11">
         <v>18.5</v>
@@ -11877,13 +11877,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="5">
         <v>44885</v>
@@ -11895,7 +11895,7 @@
         <v>15.5</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106" s="11">
         <v>19</v>
@@ -11906,13 +11906,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D107" s="5">
         <v>44885</v>
@@ -11924,7 +11924,7 @@
         <v>15.5</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107" s="11">
         <v>19.5</v>
@@ -11935,13 +11935,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="5">
         <v>44885</v>
@@ -11953,7 +11953,7 @@
         <v>15.5</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108" s="11">
         <v>20</v>
@@ -11964,13 +11964,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C109" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D109" s="5">
         <v>44885</v>
@@ -11982,7 +11982,7 @@
         <v>15.5</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109" s="11">
         <v>20.5</v>
@@ -11993,13 +11993,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D110" s="5">
         <v>44885</v>
@@ -12011,7 +12011,7 @@
         <v>15.5</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110" s="11">
         <v>21</v>
@@ -12022,13 +12022,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D111" s="5">
         <v>44885</v>
@@ -12040,7 +12040,7 @@
         <v>15.5</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111" s="11">
         <v>21.5</v>
@@ -12050,14 +12050,14 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>34</v>
+      <c r="A112" t="s">
+        <v>292</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D112" s="7">
         <v>44885</v>
@@ -12069,7 +12069,7 @@
         <v>15.5</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112" s="13">
         <v>22</v>
@@ -12815,18 +12815,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12849,14 +12849,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20DD91-9730-4ADE-AA14-DA55753D06D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60DDBF2B-D2B5-4876-9C88-0C3D1310F83B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -12871,4 +12863,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20DD91-9730-4ADE-AA14-DA55753D06D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Fishers/FSP_Database_Fishers2223.xlsx
+++ b/Data/Fishers/FSP_Database_Fishers2223.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR13\Documents\LOCAL_NOT_ONEDRIVE\FSPsmallpelagics2022\Data\Fishers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D8FFC-215C-4AEF-BA1A-8E15418CEA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A3A25-DF1B-4297-89ED-FE1AFB613AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="21802" windowHeight="11756" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1333,9 +1333,9 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H27" sqref="H27"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A46:A67"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>30</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>30</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
@@ -3313,7 +3313,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B152"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -8801,7 +8801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -12815,18 +12815,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12849,6 +12849,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20DD91-9730-4ADE-AA14-DA55753D06D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60DDBF2B-D2B5-4876-9C88-0C3D1310F83B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -12863,12 +12871,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20DD91-9730-4ADE-AA14-DA55753D06D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>